--- a/test.xlsx
+++ b/test.xlsx
@@ -458,25 +458,17 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
+      <c r="A3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="4">
